--- a/data/trans_orig/P23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F4C3A9-CCA0-4005-A22B-4CA7FAF1330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD73A157-BA8F-45B8-ABBA-27C11B3A4C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B328DC-AB0D-425C-9DF9-DC4514212C4B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F703873C-098C-47D7-9D9C-AC1C73121C61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="295">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>33,88%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,28 +105,28 @@
     <t>29,77%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -135,622 +135,607 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>46,44%</t>
   </si>
   <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>52,41%</t>
   </si>
   <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
   </si>
   <si>
     <t>49,35%</t>
@@ -759,184 +744,175 @@
     <t>45,87%</t>
   </si>
   <si>
-    <t>52,84%</t>
+    <t>52,67%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>30,97%</t>
@@ -945,7 +921,7 @@
     <t>29,8%</t>
   </si>
   <si>
-    <t>32,07%</t>
+    <t>32,06%</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1884D607-ED91-4011-ADDB-295CBA84BE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87DAA3-F0AA-4EAC-97D8-164B1A3897E3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1939,7 +1915,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2255,10 +2231,10 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>2204</v>
@@ -2267,13 +2243,13 @@
         <v>2259524</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>3442</v>
@@ -2282,13 +2258,13 @@
         <v>3520191</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2279,13 @@
         <v>629553</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -2318,13 +2294,13 @@
         <v>256344</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>874</v>
@@ -2333,13 +2309,13 @@
         <v>885897</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2330,13 @@
         <v>85037</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2369,13 +2345,13 @@
         <v>84519</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>169</v>
@@ -2384,13 +2360,13 @@
         <v>169556</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2381,13 @@
         <v>1300244</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>760</v>
@@ -2420,13 +2396,13 @@
         <v>778812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>2025</v>
@@ -2435,13 +2411,13 @@
         <v>2079056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2473,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF468098-FDBA-46F7-9775-C93CB4D66EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D66B0-2DBF-4DBD-8A6F-48C06108A9F1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,7 +2509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2640,13 +2616,13 @@
         <v>250178</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>994</v>
@@ -2655,13 +2631,13 @@
         <v>1066555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>1224</v>
@@ -2670,13 +2646,13 @@
         <v>1316734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2667,13 @@
         <v>389459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -2706,13 +2682,13 @@
         <v>71204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>427</v>
@@ -2721,13 +2697,13 @@
         <v>460664</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2718,13 @@
         <v>17965</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -2757,13 +2733,13 @@
         <v>8341</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -2772,13 +2748,13 @@
         <v>26306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2769,13 @@
         <v>317041</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -2808,13 +2784,13 @@
         <v>191696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>480</v>
@@ -2823,13 +2799,13 @@
         <v>508736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2873,13 @@
         <v>754826</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>825</v>
@@ -2912,13 +2888,13 @@
         <v>875848</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>1549</v>
@@ -2927,13 +2903,13 @@
         <v>1630674</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2924,13 @@
         <v>353117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -2963,13 +2939,13 @@
         <v>243162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>552</v>
@@ -2978,13 +2954,13 @@
         <v>596278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2975,13 @@
         <v>57599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3014,13 +2990,13 @@
         <v>48268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -3029,13 +3005,13 @@
         <v>105867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3026,13 @@
         <v>797386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>542</v>
@@ -3065,13 +3041,13 @@
         <v>588544</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>1288</v>
@@ -3080,13 +3056,13 @@
         <v>1385929</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3130,13 @@
         <v>223482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3169,13 +3145,13 @@
         <v>240354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -3184,13 +3160,13 @@
         <v>463837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3181,13 @@
         <v>96263</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -3220,13 +3196,13 @@
         <v>78855</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -3235,13 +3211,13 @@
         <v>175118</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3232,13 @@
         <v>19442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3271,13 +3247,13 @@
         <v>17251</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3286,13 +3262,13 @@
         <v>36693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3283,13 @@
         <v>141994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
@@ -3322,13 +3298,13 @@
         <v>122171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -3337,13 +3313,13 @@
         <v>264165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3387,13 @@
         <v>1228487</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>2034</v>
@@ -3426,13 +3402,13 @@
         <v>2182757</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>3192</v>
@@ -3441,13 +3417,13 @@
         <v>3411244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3438,13 @@
         <v>838839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
@@ -3477,13 +3453,13 @@
         <v>393221</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>1137</v>
@@ -3492,13 +3468,13 @@
         <v>1232059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3489,13 @@
         <v>95006</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -3528,13 +3504,13 @@
         <v>73860</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M21" s="7">
         <v>156</v>
@@ -3543,13 +3519,13 @@
         <v>168866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3540,13 @@
         <v>1256420</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>831</v>
@@ -3579,13 +3555,13 @@
         <v>902410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -3594,13 +3570,13 @@
         <v>2158831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3632,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD73A157-BA8F-45B8-ABBA-27C11B3A4C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9CA954-6A13-40C0-8896-0DF88E8C5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F703873C-098C-47D7-9D9C-AC1C73121C61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAACC091-F7B3-41DA-9B10-63BC0546B462}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="300">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>33,88%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,814 +105,829 @@
     <t>29,77%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>35,04%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>30,97%</t>
@@ -921,7 +936,7 @@
     <t>29,8%</t>
   </si>
   <si>
-    <t>32,06%</t>
+    <t>32,05%</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87DAA3-F0AA-4EAC-97D8-164B1A3897E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E092F9-7AEF-4FB0-9DD2-DA8F47F3100E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1484,7 +1499,7 @@
         <v>1426</v>
       </c>
       <c r="N4" s="7">
-        <v>1436321</v>
+        <v>1436322</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1688,7 +1703,7 @@
         <v>2328</v>
       </c>
       <c r="N8" s="7">
-        <v>2345793</v>
+        <v>2345794</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1915,7 +1930,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2231,10 +2246,10 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>2204</v>
@@ -2243,28 +2258,28 @@
         <v>2259524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>3442</v>
       </c>
       <c r="N19" s="7">
-        <v>3520191</v>
+        <v>3520190</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2294,13 @@
         <v>629553</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -2294,13 +2309,13 @@
         <v>256344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>874</v>
@@ -2309,13 +2324,13 @@
         <v>885897</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2345,13 @@
         <v>85037</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2351,7 +2366,7 @@
         <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>169</v>
@@ -2360,10 +2375,10 @@
         <v>169556</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>148</v>
@@ -2459,7 +2474,7 @@
         <v>6510</v>
       </c>
       <c r="N23" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2492,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D66B0-2DBF-4DBD-8A6F-48C06108A9F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6706E2-53FE-4FC9-AE93-B56CDAD3BEBA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,10 +2634,10 @@
         <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>994</v>
@@ -2631,13 +2646,13 @@
         <v>1066555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>1224</v>
@@ -2646,13 +2661,13 @@
         <v>1316734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2682,13 @@
         <v>389459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -2682,13 +2697,13 @@
         <v>71204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>427</v>
@@ -2697,13 +2712,13 @@
         <v>460664</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2733,13 @@
         <v>17965</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -2733,13 +2748,13 @@
         <v>8341</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -2748,13 +2763,13 @@
         <v>26306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2784,13 @@
         <v>317041</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -2784,13 +2799,13 @@
         <v>191696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>480</v>
@@ -2799,13 +2814,13 @@
         <v>508736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2888,13 @@
         <v>754826</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>825</v>
@@ -2888,13 +2903,13 @@
         <v>875848</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>1549</v>
@@ -2903,13 +2918,13 @@
         <v>1630674</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2939,13 @@
         <v>353117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -2939,13 +2954,13 @@
         <v>243162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>552</v>
@@ -2954,13 +2969,13 @@
         <v>596278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2990,13 @@
         <v>57599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -2990,13 +3005,13 @@
         <v>48268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -3005,13 +3020,13 @@
         <v>105867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3041,13 @@
         <v>797386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>542</v>
@@ -3041,13 +3056,13 @@
         <v>588544</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>1288</v>
@@ -3056,13 +3071,13 @@
         <v>1385929</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3145,13 @@
         <v>223482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3145,13 +3160,13 @@
         <v>240354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -3160,13 +3175,13 @@
         <v>463837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3196,13 @@
         <v>96263</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -3196,13 +3211,13 @@
         <v>78855</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -3211,13 +3226,13 @@
         <v>175118</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3247,13 @@
         <v>19442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3247,13 +3262,13 @@
         <v>17251</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3262,13 +3277,13 @@
         <v>36693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3298,13 @@
         <v>141994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
@@ -3298,13 +3313,13 @@
         <v>122171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -3313,13 +3328,13 @@
         <v>264165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3402,13 @@
         <v>1228487</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>2034</v>
@@ -3402,13 +3417,13 @@
         <v>2182757</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>3192</v>
@@ -3417,13 +3432,13 @@
         <v>3411244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3453,13 @@
         <v>838839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
@@ -3453,13 +3468,13 @@
         <v>393221</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>1137</v>
@@ -3468,13 +3483,13 @@
         <v>1232059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3504,13 @@
         <v>95006</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -3504,13 +3519,13 @@
         <v>73860</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
         <v>156</v>
@@ -3519,13 +3534,13 @@
         <v>168866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3555,13 @@
         <v>1256420</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>831</v>
@@ -3555,13 +3570,13 @@
         <v>902410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -3570,13 +3585,13 @@
         <v>2158831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23-Estudios-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9CA954-6A13-40C0-8896-0DF88E8C5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DD4EF5-F744-481A-8217-641782C64482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAACC091-F7B3-41DA-9B10-63BC0546B462}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B4E62E2-7E63-4152-9B20-64E4F3CD512D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="300">
-  <si>
-    <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="436">
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -516,7 +517,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+    <t>Población según consumo de tabaco (2007/2012) en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>25,67%</t>
@@ -937,6 +938,414 @@
   </si>
   <si>
     <t>32,05%</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E092F9-7AEF-4FB0-9DD2-DA8F47F3100E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418EADF8-230E-4976-A738-F6A19D4C08FC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1499,7 +1908,7 @@
         <v>1426</v>
       </c>
       <c r="N4" s="7">
-        <v>1436322</v>
+        <v>1436321</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1703,7 +2112,7 @@
         <v>2328</v>
       </c>
       <c r="N8" s="7">
-        <v>2345794</v>
+        <v>2345793</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1930,7 +2339,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2255,7 +2664,7 @@
         <v>2204</v>
       </c>
       <c r="I19" s="7">
-        <v>2259524</v>
+        <v>2259523</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -2408,7 +2817,7 @@
         <v>760</v>
       </c>
       <c r="I22" s="7">
-        <v>778812</v>
+        <v>778811</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2459,7 +2868,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2507,7 +2916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6706E2-53FE-4FC9-AE93-B56CDAD3BEBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AC667-BCC3-4439-AF03-3117FA1FC66C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +3052,7 @@
         <v>994</v>
       </c>
       <c r="I4" s="7">
-        <v>1066555</v>
+        <v>1066556</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -2847,7 +3256,7 @@
         <v>1247</v>
       </c>
       <c r="I8" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -3376,7 +3785,7 @@
         <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -3634,6 +4043,1165 @@
       </c>
       <c r="N23" s="7">
         <v>6971000</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9688A9E-1B2B-4BCD-AEBD-0A8AF12071F9}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>293</v>
+      </c>
+      <c r="D4" s="7">
+        <v>288203</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="7">
+        <v>712</v>
+      </c>
+      <c r="I4" s="7">
+        <v>807378</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1005</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1095580</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>251</v>
+      </c>
+      <c r="D5" s="7">
+        <v>240114</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="7">
+        <v>46</v>
+      </c>
+      <c r="I5" s="7">
+        <v>48673</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M5" s="7">
+        <v>297</v>
+      </c>
+      <c r="N5" s="7">
+        <v>288787</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17338</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>13611</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M6" s="7">
+        <v>29</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30949</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>200</v>
+      </c>
+      <c r="D7" s="7">
+        <v>207828</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="7">
+        <v>120</v>
+      </c>
+      <c r="I7" s="7">
+        <v>122604</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M7" s="7">
+        <v>320</v>
+      </c>
+      <c r="N7" s="7">
+        <v>330432</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>761</v>
+      </c>
+      <c r="D8" s="7">
+        <v>753482</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>890</v>
+      </c>
+      <c r="I8" s="7">
+        <v>992266</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1651</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1745748</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>864</v>
+      </c>
+      <c r="D9" s="7">
+        <v>908258</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1046</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1092167</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1910</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2000425</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>332</v>
+      </c>
+      <c r="D10" s="7">
+        <v>353511</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="7">
+        <v>219</v>
+      </c>
+      <c r="I10" s="7">
+        <v>232105</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M10" s="7">
+        <v>551</v>
+      </c>
+      <c r="N10" s="7">
+        <v>585617</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7">
+        <v>53216</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="7">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7">
+        <v>41752</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="7">
+        <v>91</v>
+      </c>
+      <c r="N11" s="7">
+        <v>94968</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>706</v>
+      </c>
+      <c r="D12" s="7">
+        <v>761400</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="7">
+        <v>600</v>
+      </c>
+      <c r="I12" s="7">
+        <v>620160</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1306</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1381559</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1906</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1986184</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3858</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4062568</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>287</v>
+      </c>
+      <c r="D14" s="7">
+        <v>306226</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" s="7">
+        <v>309</v>
+      </c>
+      <c r="I14" s="7">
+        <v>321854</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M14" s="7">
+        <v>596</v>
+      </c>
+      <c r="N14" s="7">
+        <v>628080</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>89</v>
+      </c>
+      <c r="D15" s="7">
+        <v>100294</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H15" s="7">
+        <v>98</v>
+      </c>
+      <c r="I15" s="7">
+        <v>104362</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M15" s="7">
+        <v>187</v>
+      </c>
+      <c r="N15" s="7">
+        <v>204657</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20036</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>18097</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M16" s="7">
+        <v>37</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38133</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>105</v>
+      </c>
+      <c r="D17" s="7">
+        <v>119258</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="7">
+        <v>100</v>
+      </c>
+      <c r="I17" s="7">
+        <v>103899</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M17" s="7">
+        <v>205</v>
+      </c>
+      <c r="N17" s="7">
+        <v>223157</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>500</v>
+      </c>
+      <c r="D18" s="7">
+        <v>545814</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>525</v>
+      </c>
+      <c r="I18" s="7">
+        <v>548213</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1025</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1094027</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1444</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1502687</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2067</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2221399</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3724085</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>672</v>
+      </c>
+      <c r="D20" s="7">
+        <v>693920</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="7">
+        <v>363</v>
+      </c>
+      <c r="I20" s="7">
+        <v>385140</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1035</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1079060</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7">
+        <v>90589</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H21" s="7">
+        <v>71</v>
+      </c>
+      <c r="I21" s="7">
+        <v>73460</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M21" s="7">
+        <v>157</v>
+      </c>
+      <c r="N21" s="7">
+        <v>164049</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1011</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1088485</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H22" s="7">
+        <v>820</v>
+      </c>
+      <c r="I22" s="7">
+        <v>846663</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1831</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1935148</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3213</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3375681</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3321</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3526662</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>6534</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6902343</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2007</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3060,7 +3060,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2012</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5575,7 +5575,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2016</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
